--- a/Data y gráficos/Gráficos de Tesis/FEVD/FEVD dim 10k.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/FEVD/FEVD dim 10k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Data y gráficos/Gráficos de Tesis/FEVD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E63D6CB-72E0-4F1C-9C9D-08006F6E00C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{3E63D6CB-72E0-4F1C-9C9D-08006F6E00C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75D92C47-7B2E-4BB9-810A-A9D2B33779C2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{BA016979-AD84-4008-BDA2-104F71EDABBE}"/>
   </bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A676887-0893-4C3D-ABA1-0DA9E685B853}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
